--- a/data/trans_dic/P16A04-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A04-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A04-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A04-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,27%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>0,0; 2,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>0,42; 3,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0,0; 1,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>1,17; 5,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>1,37; 6,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,02; 4,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,59; 2,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>1,28; 3,94</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,64; 2,4</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,9%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>0,43; 2,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>0,78; 3,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0,85; 3,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>0,56; 3,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>1,75; 4,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0,6; 2,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0,57; 2,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>1,27; 3,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,31; 3,09</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,91; 2,73</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,93; 2,53</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>1,25; 2,99</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,85%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>0,0; 1,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>0,31; 3,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,93; 4,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>2,66; 7,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,28; 2,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>1,14; 4,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0,84; 3,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>3,38; 7,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,15; 1,47</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,05; 3,07</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,28; 3,54</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>3,51; 6,52</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,19%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0,79; 3,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>2,88; 6,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>1,12; 4,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>0,1; 3,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>1,77; 5,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>3,22; 6,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>1,24; 4,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,59; 3,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>1,6; 3,96</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>3,39; 5,81</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>1,55; 4,03</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,56; 2,46</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,6%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>0,0; 2,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>2,36; 10,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>0,45; 4,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>0,0; 2,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>0,93; 5,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>2,32; 8,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>1,02; 6,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>1,15; 3,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>0,52; 2,86</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>3,07; 7,84</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>1,07; 4,31</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,96; 2,71</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,59%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>0,36; 3,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>0,36; 3,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>0,36; 3,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>2,71; 7,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>1,14; 5,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>0,35; 4,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>0,32; 3,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>2,99; 7,49</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,03; 3,57</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,53; 2,77</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,5; 2,22</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>3,29; 6,36</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,4%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,9; 3,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0,7; 2,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>1,99; 5,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>3,11; 6,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0,3; 1,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,01; 3,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,62; 4,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>3,66; 7,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,79; 2,09</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,13; 2,67</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>2,12; 4,06</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>3,94; 6,84</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,26%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>2,61; 5,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>2,61; 5,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>0,64; 2,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,24; 2,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>1,4; 3,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>2,13; 4,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>1,33; 3,48</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,7; 5,23</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>2,32; 4,14</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>2,72; 4,78</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>1,22; 2,52</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>0,67; 3,08</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,8%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,4; 2,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,28; 3,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,6; 2,61</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,81; 3,01</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,7; 2,77</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,37; 3,51</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,79; 2,86</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>2,67; 3,99</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>1,69; 2,39</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>2,43; 3,31</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>1,83; 2,59</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>2,41; 3,28</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A04-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A04-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,25; 9,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,69</t>
+          <t>0,0; 1,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,37; 10,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,02; 4,29</t>
+          <t>1,03; 5,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,61; 9,09</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,4</t>
+          <t>0,63; 2,54</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,87%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,28</t>
+          <t>0,54; 3,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,39</t>
+          <t>1,26; 3,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,99</t>
+          <t>1,21; 2,96</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>4,83%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,66; 7,61</t>
+          <t>2,64; 7,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,38; 7,04</t>
+          <t>3,37; 7,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,51; 6,52</t>
+          <t>3,49; 6,52</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,05%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,88; 6,35</t>
+          <t>1,52; 6,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,1; 3,3</t>
+          <t>0,11; 3,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,22; 6,71</t>
+          <t>1,47; 5,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,11</t>
+          <t>0,41; 2,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,39; 5,81</t>
+          <t>1,95; 4,8</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,46</t>
+          <t>0,51; 2,25</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,59%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,78</t>
+          <t>0,0; 2,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,91</t>
+          <t>1,14; 3,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,71</t>
+          <t>0,95; 2,71</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>4,55%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,71; 7,17</t>
+          <t>2,62; 7,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,99; 7,49</t>
+          <t>2,98; 7,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,29; 6,36</t>
+          <t>3,26; 6,29</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>4,87%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,11; 6,9</t>
+          <t>2,99; 6,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,66; 7,91</t>
+          <t>2,51; 7,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,94; 6,84</t>
+          <t>2,86; 6,31</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,07%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,07</t>
+          <t>0,12; 1,54</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,7; 5,23</t>
+          <t>0,72; 4,71</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,08</t>
+          <t>0,51; 2,39</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>2,63%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,81; 3,01</t>
+          <t>1,59; 2,88</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,67; 3,99</t>
+          <t>2,42; 3,7</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>2,41; 3,28</t>
+          <t>2,2; 3,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A04-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A04-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,04</t>
+          <t>0,0; 1,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,25; 9,33</t>
+          <t>3,02; 8,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,54</t>
+          <t>0,42; 3,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,57</t>
+          <t>0,0; 1,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 5,38</t>
+          <t>1,17; 5,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,37; 10,98</t>
+          <t>4,5; 10,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,37; 6,07</t>
+          <t>1,36; 6,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 5,0</t>
+          <t>1,14; 5,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,71</t>
+          <t>0,58; 2,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,61; 9,09</t>
+          <t>4,46; 9,08</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 3,94</t>
+          <t>1,26; 3,81</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,54</t>
+          <t>0,62; 2,81</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,56</t>
+          <t>0,39; 2,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,94</t>
+          <t>0,77; 4,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,39</t>
+          <t>1,01; 3,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 3,19</t>
+          <t>0,54; 3,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,75; 4,84</t>
+          <t>1,74; 4,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,82</t>
+          <t>0,59; 2,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,71</t>
+          <t>0,59; 2,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,39</t>
+          <t>1,33; 3,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,09</t>
+          <t>1,32; 3,15</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,73</t>
+          <t>0,92; 2,79</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 2,53</t>
+          <t>0,98; 2,58</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,96</t>
+          <t>1,14; 2,75</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,42 +1005,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,64</t>
+          <t>0,0; 1,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,02</t>
+          <t>0,31; 3,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,47</t>
+          <t>1,15; 4,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 7,62</t>
+          <t>2,81; 7,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,46</t>
+          <t>0,27; 2,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,34</t>
+          <t>1,13; 4,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,96</t>
+          <t>0,83; 3,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,37; 7,02</t>
+          <t>3,34; 7,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1050,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,07</t>
+          <t>1,03; 2,98</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 3,54</t>
+          <t>1,28; 3,57</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,49; 6,52</t>
+          <t>3,53; 6,72</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,54</t>
+          <t>0,79; 3,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 6,1</t>
+          <t>1,72; 6,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 4,77</t>
+          <t>1,3; 4,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,11; 3,46</t>
+          <t>0,1; 3,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,77; 5,48</t>
+          <t>1,77; 5,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,47; 5,34</t>
+          <t>1,48; 5,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,84</t>
+          <t>1,2; 4,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,4</t>
+          <t>0,45; 2,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,96</t>
+          <t>1,58; 3,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,95; 4,8</t>
+          <t>1,96; 4,77</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,03</t>
+          <t>1,59; 3,99</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,25</t>
+          <t>0,5; 2,14</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,65</t>
+          <t>0,0; 2,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,36; 10,15</t>
+          <t>2,25; 9,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,77</t>
+          <t>0,45; 4,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,8</t>
+          <t>0,0; 2,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,93; 5,72</t>
+          <t>0,93; 5,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,32; 8,56</t>
+          <t>2,72; 9,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,02; 6,43</t>
+          <t>1,04; 6,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,89</t>
+          <t>1,2; 4,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,86</t>
+          <t>0,66; 3,23</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,07; 7,84</t>
+          <t>3,03; 8,45</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,07; 4,31</t>
+          <t>1,07; 4,02</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,71</t>
+          <t>0,84; 2,65</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,6</t>
+          <t>0,36; 3,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,2</t>
+          <t>0,36; 3,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,47</t>
+          <t>0,35; 3,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,62; 7,1</t>
+          <t>2,83; 7,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,14; 5,33</t>
+          <t>0,87; 5,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,35; 4,26</t>
+          <t>0,35; 4,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,01</t>
+          <t>0,32; 2,7</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,98; 7,42</t>
+          <t>2,85; 7,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,57</t>
+          <t>0,98; 3,35</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,77</t>
+          <t>0,66; 2,83</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,22</t>
+          <t>0,49; 2,31</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,26; 6,29</t>
+          <t>3,28; 6,21</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,9; 3,15</t>
+          <t>0,9; 3,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,9</t>
+          <t>0,73; 2,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,99; 5,09</t>
+          <t>1,96; 4,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,99; 6,73</t>
+          <t>2,99; 6,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,83</t>
+          <t>0,32; 1,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,3</t>
+          <t>1,04; 3,31</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,62; 4,4</t>
+          <t>1,59; 4,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,51; 7,36</t>
+          <t>2,44; 7,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,09</t>
+          <t>0,75; 2,11</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,67</t>
+          <t>1,04; 2,62</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2,12; 4,06</t>
+          <t>2,15; 4,31</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,86; 6,31</t>
+          <t>3,08; 6,24</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,61; 5,47</t>
+          <t>2,61; 5,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,61; 5,57</t>
+          <t>2,64; 5,89</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,42</t>
+          <t>0,62; 2,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,54</t>
+          <t>0,15; 1,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,67</t>
+          <t>1,46; 3,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,13; 4,88</t>
+          <t>2,05; 4,72</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,48</t>
+          <t>1,38; 3,61</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,72; 4,71</t>
+          <t>0,69; 4,55</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,32; 4,14</t>
+          <t>2,34; 4,2</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2,72; 4,78</t>
+          <t>2,71; 4,69</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,52</t>
+          <t>1,15; 2,53</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,39</t>
+          <t>0,53; 2,42</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,4; 2,34</t>
+          <t>1,4; 2,28</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,28; 3,57</t>
+          <t>2,14; 3,48</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,6; 2,61</t>
+          <t>1,59; 2,59</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,59; 2,88</t>
+          <t>1,64; 2,82</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,7; 2,77</t>
+          <t>1,72; 2,77</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,37; 3,51</t>
+          <t>2,35; 3,52</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,79; 2,86</t>
+          <t>1,79; 2,89</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,42; 3,7</t>
+          <t>2,42; 3,73</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,69; 2,39</t>
+          <t>1,68; 2,38</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>2,43; 3,31</t>
+          <t>2,42; 3,29</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>1,83; 2,59</t>
+          <t>1,79; 2,56</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>2,2; 3,07</t>
+          <t>2,21; 3,08</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido antibióticos en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>977</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>16197</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4462</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>883</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>20524</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>8732</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>6772</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>8175</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>36721</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>13194</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>7655</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4905</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8764; 25992</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1231; 11228</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5240</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3044; 14164</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>12662; 30630</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3940; 17461</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3297; 15827</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3120; 14470</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>25479; 51910</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>7335; 22182</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3750; 16865</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>5948</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>9497</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>9555</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8082</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>15574</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7415</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7044</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>11196</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>21522</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>16912</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>16600</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>19278</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1940; 12083</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3882; 21272</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5096; 16962</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2797; 17692</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>8762; 24975</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3099; 13914</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3092; 14796</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6810; 17812</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>13165; 31356</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>9428; 28624</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>10099; 26411</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>11789; 28359</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>949</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3981</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>7508</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>15057</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2904</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7978</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6725</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17077</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>3854</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>11959</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>14233</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>32134</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5743</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1017; 10707</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3667; 14097</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8854; 24443</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>922; 7799</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3851; 15251</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2801; 12542</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11667; 25697</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>950; 9594</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6844; 19811</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>8372; 23366</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>23460; 44674</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>6659</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>12127</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>9201</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2841</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>12101</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>11321</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>10088</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>5449</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>18760</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>23447</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>19289</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>8290</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2839; 12908</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>6448; 22960</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4821; 17349</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>317; 12341</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>6572; 20480</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>5751; 20141</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>4635; 18983</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2156; 11270</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>11524; 27801</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>14966; 36373</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>12063; 30217</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>3971; 16875</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>10457</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3477</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1359</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5078</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>10784</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>6502</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>4809</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5973</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>21241</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>9979</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>6168</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4250</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4774; 20566</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>949; 9701</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4100</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1936; 12065</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5951; 20575</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2280; 13748</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2496; 8353</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2705; 13262</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>13068; 36417</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>4614; 17273</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3269; 10270</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3837</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3823</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3554</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>12118</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>6982</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3773</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2775</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>11867</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>10819</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>6329</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>23985</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>983; 9611</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>984; 9425</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>925; 8704</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>7621; 19760</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2410; 14307</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>977; 11752</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>869; 7371</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>7320; 18666</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>5386; 18408</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>3639; 15661</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>2623; 12407</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>17260; 32722</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>10856</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>9956</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>21319</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>29040</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>5785</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>13219</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>19173</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>42709</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>16641</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>23175</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>40492</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>71749</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>5520; 19630</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>4841; 17937</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>12883; 32265</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>18644; 42325</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2037; 12041</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>7231; 22936</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>10974; 30844</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>20691; 61267</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>9421; 26383</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>14104; 35424</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>29025; 58140</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>45452; 91969</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>28542</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>30769</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>10059</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>5813</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>19167</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>26304</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>18924</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>11779</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>47709</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>57073</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>28983</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>17591</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>19404; 41155</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>20520; 45766</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>4850; 18313</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>1396; 14918</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>11428; 30221</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>16816; 38749</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>11378; 29810</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>4952; 32505</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>35696; 64166</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>43263; 74933</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>18511; 40553</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>8732; 39745</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>58663</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>96805</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>69134</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>75194</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>74790</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>101318</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>79964</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>111657</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>133452</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>198123</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>149098</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>186852</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>45782; 74568</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>73191; 118752</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>53948; 87983</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>56889; 97638</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>58066; 93580</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>83466; 124986</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>63427; 102289</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>88403; 136558</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>112047; 158487</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>168636; 229140</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>124314; 177422</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>157336; 219395</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>